--- a/Python/TradePrice.xlsx
+++ b/Python/TradePrice.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptp/Documents/Pushkar/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20DDEC-1161-F24C-94E1-F274517F1D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847D550D-04B3-694B-AE54-C36C5C430489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23960" yWindow="4100" windowWidth="27240" windowHeight="16440" xr2:uid="{AF67BB95-340F-084F-8440-D8BBD60C3A80}"/>
+    <workbookView xWindow="23960" yWindow="4100" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{AF67BB95-340F-084F-8440-D8BBD60C3A80}"/>
   </bookViews>
   <sheets>
     <sheet name="SOFR" sheetId="1" r:id="rId1"/>
+    <sheet name="ShortINRFX" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Fixed Leg</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>SOFR</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -129,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,6 +144,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B4DED2-B0A4-8740-863C-A95BB787B3C3}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -1079,4 +1087,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4748D0D2-C43C-2941-8397-D612508312E7}">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46053</v>
+      </c>
+      <c r="D3">
+        <v>84.5</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>46142</v>
+      </c>
+      <c r="D4">
+        <v>84.5</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>